--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="448">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,12 @@
     <t>Gardener</t>
   </si>
   <si>
+    <t>General Cleaning</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
     <t>Komaru ♥</t>
   </si>
   <si>
@@ -136,19 +142,25 @@
     <t>Extincion</t>
   </si>
   <si>
+    <t>Happy Anniversary</t>
+  </si>
+  <si>
     <t>Happy Minecraft Year</t>
   </si>
   <si>
     <t>Master Villager</t>
   </si>
   <si>
+    <t>Oh, My Broken Legs</t>
+  </si>
+  <si>
     <t>Raise The Stakes</t>
   </si>
   <si>
     <t>So Bright</t>
   </si>
   <si>
-    <t>Star-Fisherman</t>
+    <t>Star Fisherman</t>
   </si>
   <si>
     <t>The world is actually ending 2</t>
@@ -163,6 +175,9 @@
     <t>Zero Coordinates Magnet</t>
   </si>
   <si>
+    <t>Oh, I Forgot about the Anvil</t>
+  </si>
+  <si>
     <t>Endergardener</t>
   </si>
   <si>
@@ -214,6 +229,9 @@
     <t>Ancient Sorcerer Sage</t>
   </si>
   <si>
+    <t>Artisan Adept</t>
+  </si>
+  <si>
     <t>Ascension Ace</t>
   </si>
   <si>
@@ -226,6 +244,9 @@
     <t>Climb Expert</t>
   </si>
   <si>
+    <t>Craftsman Novice</t>
+  </si>
+  <si>
     <t>Culinary Delight Maestro</t>
   </si>
   <si>
@@ -235,6 +256,9 @@
     <t>Epic Capital Conqueror</t>
   </si>
   <si>
+    <t>Eternal Vanguard</t>
+  </si>
+  <si>
     <t>Jetsetter of the Skies</t>
   </si>
   <si>
@@ -253,6 +277,15 @@
     <t>Ladder Legend</t>
   </si>
   <si>
+    <t>Legendary Artisan</t>
+  </si>
+  <si>
+    <t>Master Artificer</t>
+  </si>
+  <si>
+    <t>Master of Survival</t>
+  </si>
+  <si>
     <t>Mr. Chester</t>
   </si>
   <si>
@@ -265,6 +298,21 @@
     <t>Navigator of the Infinite Waters</t>
   </si>
   <si>
+    <t>Resilient Centenarian</t>
+  </si>
+  <si>
+    <t>Shulker Explorer</t>
+  </si>
+  <si>
+    <t>Shulker Maestro</t>
+  </si>
+  <si>
+    <t>Shulker Seeker</t>
+  </si>
+  <si>
+    <t>Shulker Voyager</t>
+  </si>
+  <si>
     <t>Skyward Legs</t>
   </si>
   <si>
@@ -277,6 +325,9 @@
     <t>Survival Saga</t>
   </si>
   <si>
+    <t>Survivor`s Hour</t>
+  </si>
+  <si>
     <t>Titan of Olympian Gold Triumphs</t>
   </si>
   <si>
@@ -298,6 +349,12 @@
     <t>Water the flower in the pot while standing on it</t>
   </si>
   <si>
+    <t>Sweep in every structure type and spawner in dungeon</t>
+  </si>
+  <si>
+    <t>Get 64 torchflowers and 64 pitcher plants</t>
+  </si>
+  <si>
     <t>Name the cat "Komaru"</t>
   </si>
   <si>
@@ -376,7 +433,10 @@
     <t>Have every max possible level effect applied at the same time</t>
   </si>
   <si>
-    <t>Kill a strength 5 llama, a black rabbit, a brown panda, a blue axolotl and a jungle nitwit with a single piercing arrow</t>
+    <t>Kill a strength 5 llama, a black rabbit, a brown panda, a blue axolotl and a jungle nitwit with a single piercing arrow in the End</t>
+  </si>
+  <si>
+    <t>Kill 300 withers</t>
   </si>
   <si>
     <t>Launch firework on new year`s day in minecraft!</t>
@@ -385,6 +445,9 @@
     <t>Trade for everything from a villager</t>
   </si>
   <si>
+    <t>Stay alive with a fall of Y&gt;1000, falling not on blocks that soften the fall, without items in your inventory and without effects</t>
+  </si>
+  <si>
     <t>Fill your inventory with golden apples</t>
   </si>
   <si>
@@ -406,6 +469,9 @@
     <t>Kill the blue axolotl at coordinates x: 0 z: 0 y: 0 in the End</t>
   </si>
   <si>
+    <t>Take Damage from the anvil</t>
+  </si>
+  <si>
     <t>Plant 1000 chorus flowers</t>
   </si>
   <si>
@@ -454,6 +520,9 @@
     <t>Enchant 1000 items</t>
   </si>
   <si>
+    <t>Open the crafting table 500 times</t>
+  </si>
+  <si>
     <t>Climb for 100km</t>
   </si>
   <si>
@@ -466,6 +535,9 @@
     <t>Climb for 1km</t>
   </si>
   <si>
+    <t>Open the crafting table 50 times</t>
+  </si>
+  <si>
     <t>Eat 25,000 food items</t>
   </si>
   <si>
@@ -475,10 +547,13 @@
     <t>Trade with villagers 10,000 times</t>
   </si>
   <si>
+    <t>Avoid dying within 500 hour</t>
+  </si>
+  <si>
     <t>Fly 10000km with elytra</t>
   </si>
   <si>
-    <t>Play for 1000 minecraft days</t>
+    <t>Play for 1000 Minecraft days</t>
   </si>
   <si>
     <t>Open 100,000 chests</t>
@@ -493,6 +568,15 @@
     <t>Climb for 10km</t>
   </si>
   <si>
+    <t>Open the crafting table 50000 times</t>
+  </si>
+  <si>
+    <t>Open the crafting table 5000 times</t>
+  </si>
+  <si>
+    <t>Avoid dying within 100 hour</t>
+  </si>
+  <si>
     <t>Open 10,000 chests!</t>
   </si>
   <si>
@@ -505,6 +589,21 @@
     <t>Sail 500km in a boat</t>
   </si>
   <si>
+    <t>Avoid dying within 10 hour</t>
+  </si>
+  <si>
+    <t>Open the shulker box 1000 times</t>
+  </si>
+  <si>
+    <t>Open the shulker box 100,000 times</t>
+  </si>
+  <si>
+    <t>Open the shulker box 100 times</t>
+  </si>
+  <si>
+    <t>Open the shulker box 10,000 times</t>
+  </si>
+  <si>
     <t>Jump 1,000,000 times</t>
   </si>
   <si>
@@ -517,6 +616,9 @@
     <t>Defeat 500,000 mobs</t>
   </si>
   <si>
+    <t>Avoid dying within 1 hour</t>
+  </si>
+  <si>
     <t>Swim 500km</t>
   </si>
   <si>
@@ -562,6 +664,9 @@
     <t>challenges</t>
   </si>
   <si>
+    <t>enchanting</t>
+  </si>
+  <si>
     <t>end</t>
   </si>
   <si>
@@ -589,6 +694,12 @@
     <t>adventure/gardener</t>
   </si>
   <si>
+    <t>adventure/general_cleaning</t>
+  </si>
+  <si>
+    <t>adventure/jurassic_park</t>
+  </si>
+  <si>
     <t>adventure/komaru</t>
   </si>
   <si>
@@ -673,12 +784,18 @@
     <t>challenges/extincion</t>
   </si>
   <si>
+    <t>challenges/happy_anniversary</t>
+  </si>
+  <si>
     <t>challenges/happy_minecraft_year</t>
   </si>
   <si>
     <t>challenges/master_villager</t>
   </si>
   <si>
+    <t>challenges/oh_my_broken_legs</t>
+  </si>
+  <si>
     <t>challenges/raise_the_stakes</t>
   </si>
   <si>
@@ -700,6 +817,9 @@
     <t>challenges/zero_coordinates_magnet</t>
   </si>
   <si>
+    <t>enchanting/oh_i_forgot_about_the_anvil</t>
+  </si>
+  <si>
     <t>end/endergardener</t>
   </si>
   <si>
@@ -751,6 +871,9 @@
     <t>statistics/ancient_sorcerer_sage</t>
   </si>
   <si>
+    <t>statistics/artisan_adept</t>
+  </si>
+  <si>
     <t>statistics/ascension_ace</t>
   </si>
   <si>
@@ -763,6 +886,9 @@
     <t>statistics/climb_expert</t>
   </si>
   <si>
+    <t>statistics/craftsman_novice</t>
+  </si>
+  <si>
     <t>statistics/culinary_delight_maestro</t>
   </si>
   <si>
@@ -772,6 +898,9 @@
     <t>statistics/epic_capital_conqueror</t>
   </si>
   <si>
+    <t>statistics/eternal_vanguard</t>
+  </si>
+  <si>
     <t>statistics/etsetter_of_the_skies</t>
   </si>
   <si>
@@ -790,6 +919,15 @@
     <t>statistics/ladder_legend</t>
   </si>
   <si>
+    <t>statistics/legendary_artisan</t>
+  </si>
+  <si>
+    <t>statistics/master_artificer</t>
+  </si>
+  <si>
+    <t>statistics/master_of_survival</t>
+  </si>
+  <si>
     <t>statistics/mr_chester</t>
   </si>
   <si>
@@ -802,6 +940,21 @@
     <t>statistics/navigator_of_the_infinite_waters</t>
   </si>
   <si>
+    <t>statistics/resilient_centenarian</t>
+  </si>
+  <si>
+    <t>statistics/shulker_explorer</t>
+  </si>
+  <si>
+    <t>statistics/shulker_maestro</t>
+  </si>
+  <si>
+    <t>statistics/shulker_seeker</t>
+  </si>
+  <si>
+    <t>statistics/shulker_voyager</t>
+  </si>
+  <si>
     <t>statistics/skyward_legs</t>
   </si>
   <si>
@@ -814,6 +967,9 @@
     <t>statistics/survival_saga</t>
   </si>
   <si>
+    <t>statistics/survivors_hour</t>
+  </si>
+  <si>
     <t>statistics/titan_of_olympian_gold_triumphs</t>
   </si>
   <si>
@@ -835,6 +991,9 @@
     <t>minecraft:husbandry/plant_any_sniffer_seed</t>
   </si>
   <si>
+    <t>blazeandcave:adventure/raidin_master</t>
+  </si>
+  <si>
     <t>blazeandcave-addon:adventure/placeholder</t>
   </si>
   <si>
@@ -898,37 +1057,55 @@
     <t>blazeandcave:building/greek_art_decor</t>
   </si>
   <si>
-    <t>blazeandcave-addon:challenges/extincion</t>
+    <t>blazeandcave:challenges/biological_warfare</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/telescopic</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/ad_astra</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/dragon_vs_wither_the_pre_sequell</t>
+  </si>
+  <si>
+    <t>minecraft:nether/all_effects</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:challenges/zero_coordinates_magnet</t>
   </si>
   <si>
     <t>blazeandcave:challenges/root</t>
   </si>
   <si>
-    <t>blazeandcave-addon:challenges/void_being</t>
-  </si>
-  <si>
-    <t>minecraft:nether/all_effects</t>
-  </si>
-  <si>
-    <t>blazeandcave-addon:challenges/star_fisherman</t>
-  </si>
-  <si>
-    <t>blazeandcave-addon:challenges/raise_the_stakes</t>
+    <t>blazeandcave:challenges/riddle_me_this</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/stockbroker</t>
   </si>
   <si>
     <t>blazeandcave-addon:challenges/so_bright</t>
   </si>
   <si>
+    <t>blazeandcave:challenges/all_the_items</t>
+  </si>
+  <si>
     <t>blazeandcave-addon:challenges/astronomer</t>
   </si>
   <si>
-    <t>blazeandcave-addon:challenges/dragon_vs_wither_iv</t>
-  </si>
-  <si>
-    <t>blazeandcave-addon:challenges/master_villager</t>
-  </si>
-  <si>
-    <t>blazeandcave-addon:challenges/5_birds_1_stone</t>
+    <t>blazeandcave:challenges/the_world_is_ending</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:challenges/celestial_protocol</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/abyss_lord</t>
+  </si>
+  <si>
+    <t>blazeandcave:challenges/endergeddon</t>
+  </si>
+  <si>
+    <t>blazeandcave:enchanting/heavy_metal</t>
   </si>
   <si>
     <t>blazeandcave:end/extrabiologist</t>
@@ -979,6 +1156,9 @@
     <t>blazeandcave:statistics/elderly_enchanter</t>
   </si>
   <si>
+    <t>blazeandcave-addon:statistics/craftsman_novice</t>
+  </si>
+  <si>
     <t>blazeandcave-addon:statistics/ladder_legend</t>
   </si>
   <si>
@@ -991,6 +1171,9 @@
     <t>blazeandcave-addon:statistics/jungle_gymnast</t>
   </si>
   <si>
+    <t>blazeandcave:technical/you_are_a_big_cheater</t>
+  </si>
+  <si>
     <t>blazeandcave:statistics/food_glorious_food</t>
   </si>
   <si>
@@ -1000,6 +1183,9 @@
     <t>blazeandcave:statistics/stonks</t>
   </si>
   <si>
+    <t>blazeandcave-addon:statistics/master_of_survival</t>
+  </si>
+  <si>
     <t>blazeandcave:statistics/frequent_flyer</t>
   </si>
   <si>
@@ -1018,6 +1204,15 @@
     <t>blazeandcave-addon:statistics/climb_expert</t>
   </si>
   <si>
+    <t>blazeandcave-addon:statistics/master_artificer</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/artisan_adept</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/resilient_centenarian</t>
+  </si>
+  <si>
     <t>blazeandcave-addon:statistics/chest_lover</t>
   </si>
   <si>
@@ -1025,6 +1220,18 @@
   </si>
   <si>
     <t>blazeandcave:statistics/sailor_of_the_seven_seas</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/survivors_hour</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/shulker_seeker</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/shulker_voyager</t>
+  </si>
+  <si>
+    <t>blazeandcave-addon:statistics/shulker_explorer</t>
   </si>
   <si>
     <t>blazeandcave:statistics/jumping_jacks</t>
@@ -1508,7 +1715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,28 +1758,28 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="I2" t="s">
-        <v>370</v>
+        <v>439</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -1583,31 +1790,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="H3" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I3" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J3" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1615,31 +1822,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="G4" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H4" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="I4" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1647,31 +1854,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
       <c r="G5" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H5" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I5" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J5" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1679,31 +1886,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="G6" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="I6" t="s">
-        <v>372</v>
-      </c>
-      <c r="J6">
-        <v>50</v>
+        <v>440</v>
+      </c>
+      <c r="J6" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1711,31 +1918,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H7" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I7" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J7" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1743,31 +1950,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="G8" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H8" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I8" t="s">
-        <v>350</v>
-      </c>
-      <c r="J8" t="s">
-        <v>350</v>
+        <v>441</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1775,31 +1982,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="G9" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="H9" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I9" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J9" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1807,31 +2014,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H10" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I10" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J10" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1839,31 +2046,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="F11" t="s">
-        <v>272</v>
+        <v>331</v>
       </c>
       <c r="G11" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="H11" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I11" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J11" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1871,31 +2078,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="G12" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H12" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
-      </c>
-      <c r="J12">
-        <v>100</v>
+        <v>419</v>
+      </c>
+      <c r="J12" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1903,31 +2110,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I13" t="s">
-        <v>373</v>
-      </c>
-      <c r="J13">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="J13" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1935,31 +2142,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="G14" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H14" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I14" t="s">
-        <v>350</v>
-      </c>
-      <c r="J14" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J14">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1967,31 +2174,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="G15" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="I15" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
       <c r="J15">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1999,31 +2206,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="G16" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H16" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
-      </c>
-      <c r="J16">
-        <v>300</v>
+        <v>419</v>
+      </c>
+      <c r="J16" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2031,31 +2238,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="G17" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H17" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I17" t="s">
-        <v>350</v>
-      </c>
-      <c r="J17" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2063,31 +2270,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="G18" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H18" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J18">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2095,31 +2302,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="G19" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H19" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="I19" t="s">
-        <v>352</v>
-      </c>
-      <c r="J19">
-        <v>1000</v>
+        <v>419</v>
+      </c>
+      <c r="J19" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2127,31 +2334,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="G20" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H20" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="I20" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J20">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2159,31 +2366,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="G21" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H21" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="I21" t="s">
-        <v>350</v>
-      </c>
-      <c r="J21" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2191,31 +2398,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F22" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="G22" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H22" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I22" t="s">
-        <v>350</v>
-      </c>
-      <c r="J22" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2223,31 +2430,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F23" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H23" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I23" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J23" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2255,31 +2462,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="F24" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="G24" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H24" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I24" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J24" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2287,31 +2494,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="G25" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H25" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I25" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J25" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2319,31 +2526,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="G26" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H26" t="s">
-        <v>356</v>
+        <v>419</v>
       </c>
       <c r="I26" t="s">
-        <v>374</v>
-      </c>
-      <c r="J26">
-        <v>1000</v>
+        <v>419</v>
+      </c>
+      <c r="J26" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2351,31 +2558,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="D27" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F27" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H27" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="I27" t="s">
-        <v>352</v>
-      </c>
-      <c r="J27">
-        <v>500</v>
+        <v>419</v>
+      </c>
+      <c r="J27" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2383,28 +2590,28 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="F28" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="G28" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H28" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="I28" t="s">
-        <v>352</v>
+        <v>443</v>
       </c>
       <c r="J28">
         <v>1000</v>
@@ -2415,31 +2622,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F29" t="s">
-        <v>295</v>
+        <v>348</v>
       </c>
       <c r="G29" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H29" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="I29" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="J29">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2447,31 +2654,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="F30" t="s">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H30" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="I30" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J30">
-        <v>10000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2479,31 +2686,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="G31" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="I31" t="s">
-        <v>352</v>
+        <v>444</v>
       </c>
       <c r="J31">
-        <v>1000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2511,31 +2718,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D32" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E32" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="I32" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J32">
-        <v>500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2543,31 +2750,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E33" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F33" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="G33" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H33" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="I33" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J33">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2575,31 +2782,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E34" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="F34" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="G34" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H34" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I34" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J34" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2607,31 +2814,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="G35" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H35" t="s">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="I35" t="s">
-        <v>350</v>
-      </c>
-      <c r="J35" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2639,31 +2846,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="G36" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H36" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="I36" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J36">
-        <v>300</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2671,31 +2878,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="F37" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H37" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="I37" t="s">
-        <v>352</v>
-      </c>
-      <c r="J37">
-        <v>1000</v>
+        <v>419</v>
+      </c>
+      <c r="J37" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2703,31 +2910,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D38" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E38" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="G38" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H38" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="I38" t="s">
-        <v>352</v>
-      </c>
-      <c r="J38">
-        <v>500</v>
+        <v>419</v>
+      </c>
+      <c r="J38" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2735,31 +2942,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H39" t="s">
-        <v>367</v>
+        <v>419</v>
       </c>
       <c r="I39" t="s">
-        <v>376</v>
-      </c>
-      <c r="J39">
-        <v>5000</v>
+        <v>419</v>
+      </c>
+      <c r="J39" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2767,31 +2974,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F40" t="s">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="G40" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H40" t="s">
-        <v>350</v>
+        <v>433</v>
       </c>
       <c r="I40" t="s">
-        <v>350</v>
-      </c>
-      <c r="J40" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J40">
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2799,31 +3006,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E41" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="G41" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H41" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="I41" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2831,31 +3038,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="F42" t="s">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H42" t="s">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="I42" t="s">
-        <v>350</v>
-      </c>
-      <c r="J42" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2863,31 +3070,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C43" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="G43" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H43" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="I43" t="s">
-        <v>350</v>
-      </c>
-      <c r="J43" t="s">
-        <v>350</v>
+        <v>445</v>
+      </c>
+      <c r="J43">
+        <v>5000</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2895,31 +3102,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="E44" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="F44" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="G44" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H44" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I44" t="s">
-        <v>378</v>
-      </c>
-      <c r="J44">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="J44" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2927,31 +3134,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="E45" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="F45" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="G45" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H45" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2959,31 +3166,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="F46" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="G46" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H46" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="I46" t="s">
-        <v>352</v>
+        <v>446</v>
       </c>
       <c r="J46">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2991,31 +3198,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="F47" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H47" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I47" t="s">
-        <v>352</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
+        <v>419</v>
+      </c>
+      <c r="J47" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3023,31 +3230,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="F48" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="G48" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H48" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I48" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J48" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3055,31 +3262,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="F49" t="s">
-        <v>309</v>
+        <v>367</v>
       </c>
       <c r="G49" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H49" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I49" t="s">
-        <v>350</v>
-      </c>
-      <c r="J49" t="s">
-        <v>350</v>
+        <v>447</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3087,31 +3294,31 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="G50" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H50" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I50" t="s">
-        <v>352</v>
-      </c>
-      <c r="J50">
-        <v>200</v>
+        <v>419</v>
+      </c>
+      <c r="J50" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3119,31 +3326,31 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="G51" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H51" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
-      </c>
-      <c r="J51" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J51">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3151,31 +3358,31 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="E52" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H52" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I52" t="s">
-        <v>350</v>
-      </c>
-      <c r="J52" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3183,31 +3390,31 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E53" t="s">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="F53" t="s">
-        <v>316</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H53" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I53" t="s">
-        <v>352</v>
-      </c>
-      <c r="J53">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3215,31 +3422,31 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="E54" t="s">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="G54" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H54" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I54" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3247,31 +3454,31 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="E55" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="F55" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
       <c r="G55" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H55" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="I55" t="s">
-        <v>352</v>
+        <v>421</v>
       </c>
       <c r="J55">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3279,31 +3486,31 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E56" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="G56" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H56" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I56" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J56" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3311,31 +3518,31 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="F57" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
       <c r="G57" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H57" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I57" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J57" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3343,31 +3550,31 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="E58" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="F58" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="G58" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H58" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I58" t="s">
-        <v>350</v>
-      </c>
-      <c r="J58" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J58">
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3375,31 +3582,31 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="F59" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
       <c r="G59" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H59" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I59" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J59" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3407,31 +3614,31 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="F60" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="G60" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H60" t="s">
-        <v>350</v>
+        <v>437</v>
       </c>
       <c r="I60" t="s">
-        <v>350</v>
-      </c>
-      <c r="J60" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3439,31 +3646,31 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>208</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E61" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="F61" t="s">
-        <v>324</v>
+        <v>378</v>
       </c>
       <c r="G61" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H61" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I61" t="s">
-        <v>352</v>
-      </c>
-      <c r="J61">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="J61" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3471,31 +3678,31 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="G62" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H62" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I62" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J62" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3503,31 +3710,31 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E63" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="G63" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H63" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I63" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J63" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3535,31 +3742,31 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E64" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="G64" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H64" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I64" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J64" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3567,31 +3774,31 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E65" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="F65" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="G65" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H65" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I65" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3599,31 +3806,31 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E66" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="F66" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="G66" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H66" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I66" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J66" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3631,31 +3838,31 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E67" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F67" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="G67" t="s">
-        <v>346</v>
+        <v>416</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I67" t="s">
-        <v>350</v>
-      </c>
-      <c r="J67" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J67">
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3663,31 +3870,31 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E68" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="F68" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
       <c r="G68" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I68" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J68" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3695,31 +3902,31 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E69" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="F69" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="G69" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="H69" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I69" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="J69" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3727,31 +3934,31 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E70" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="G70" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H70" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I70" t="s">
-        <v>352</v>
-      </c>
-      <c r="J70">
-        <v>200</v>
+        <v>419</v>
+      </c>
+      <c r="J70" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3759,31 +3966,31 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E71" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="F71" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="G71" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H71" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I71" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J71" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3791,31 +3998,31 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E72" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>389</v>
       </c>
       <c r="G72" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="H72" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I72" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J72" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3823,31 +4030,31 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
       <c r="G73" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H73" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I73" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J73" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3855,31 +4062,31 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E74" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>336</v>
+        <v>391</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H74" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I74" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J74" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3887,31 +4094,31 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E75" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="F75" t="s">
-        <v>337</v>
+        <v>392</v>
       </c>
       <c r="G75" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H75" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I75" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J75" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3919,31 +4126,31 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="F76" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="G76" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H76" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I76" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J76" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3951,31 +4158,31 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="F77" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="G77" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="H77" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I77" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="J77" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3983,31 +4190,31 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="F78" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="G78" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H78" t="s">
-        <v>350</v>
+        <v>421</v>
       </c>
       <c r="I78" t="s">
-        <v>350</v>
-      </c>
-      <c r="J78" t="s">
-        <v>350</v>
+        <v>421</v>
+      </c>
+      <c r="J78">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4015,31 +4222,31 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E79" t="s">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="F79" t="s">
-        <v>341</v>
+        <v>396</v>
       </c>
       <c r="G79" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H79" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I79" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J79" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4047,31 +4254,31 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="E80" t="s">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="F80" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="G80" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H80" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I80" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J80" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4079,31 +4286,31 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="F81" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
       <c r="G81" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="H81" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="I81" t="s">
-        <v>352</v>
-      </c>
-      <c r="J81">
-        <v>50</v>
+        <v>419</v>
+      </c>
+      <c r="J81" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4111,31 +4318,31 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="F82" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="G82" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="I82" t="s">
-        <v>352</v>
-      </c>
-      <c r="J82">
-        <v>25</v>
+        <v>419</v>
+      </c>
+      <c r="J82" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4143,31 +4350,575 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="D83" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="E83" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="G83" t="s">
-        <v>347</v>
+        <v>417</v>
       </c>
       <c r="H83" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="I83" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="J83" t="s">
-        <v>350</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84" t="s">
+        <v>306</v>
+      </c>
+      <c r="F84" t="s">
+        <v>400</v>
+      </c>
+      <c r="G84" t="s">
+        <v>415</v>
+      </c>
+      <c r="H84" t="s">
+        <v>419</v>
+      </c>
+      <c r="I84" t="s">
+        <v>419</v>
+      </c>
+      <c r="J84" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" t="s">
+        <v>222</v>
+      </c>
+      <c r="E85" t="s">
+        <v>307</v>
+      </c>
+      <c r="F85" t="s">
+        <v>401</v>
+      </c>
+      <c r="G85" t="s">
+        <v>415</v>
+      </c>
+      <c r="H85" t="s">
+        <v>419</v>
+      </c>
+      <c r="I85" t="s">
+        <v>419</v>
+      </c>
+      <c r="J85" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" t="s">
+        <v>308</v>
+      </c>
+      <c r="F86" t="s">
+        <v>402</v>
+      </c>
+      <c r="G86" t="s">
+        <v>416</v>
+      </c>
+      <c r="H86" t="s">
+        <v>419</v>
+      </c>
+      <c r="I86" t="s">
+        <v>419</v>
+      </c>
+      <c r="J86" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>207</v>
+      </c>
+      <c r="D87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" t="s">
+        <v>403</v>
+      </c>
+      <c r="G87" t="s">
+        <v>416</v>
+      </c>
+      <c r="H87" t="s">
+        <v>419</v>
+      </c>
+      <c r="I87" t="s">
+        <v>419</v>
+      </c>
+      <c r="J87" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" t="s">
+        <v>222</v>
+      </c>
+      <c r="E88" t="s">
+        <v>310</v>
+      </c>
+      <c r="F88" t="s">
+        <v>404</v>
+      </c>
+      <c r="G88" t="s">
+        <v>415</v>
+      </c>
+      <c r="H88" t="s">
+        <v>419</v>
+      </c>
+      <c r="I88" t="s">
+        <v>419</v>
+      </c>
+      <c r="J88" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" t="s">
+        <v>311</v>
+      </c>
+      <c r="F89" t="s">
+        <v>385</v>
+      </c>
+      <c r="G89" t="s">
+        <v>417</v>
+      </c>
+      <c r="H89" t="s">
+        <v>419</v>
+      </c>
+      <c r="I89" t="s">
+        <v>419</v>
+      </c>
+      <c r="J89" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>206</v>
+      </c>
+      <c r="D90" t="s">
+        <v>222</v>
+      </c>
+      <c r="E90" t="s">
+        <v>312</v>
+      </c>
+      <c r="F90" t="s">
+        <v>405</v>
+      </c>
+      <c r="G90" t="s">
+        <v>415</v>
+      </c>
+      <c r="H90" t="s">
+        <v>419</v>
+      </c>
+      <c r="I90" t="s">
+        <v>419</v>
+      </c>
+      <c r="J90" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>222</v>
+      </c>
+      <c r="E91" t="s">
+        <v>313</v>
+      </c>
+      <c r="F91" t="s">
+        <v>406</v>
+      </c>
+      <c r="G91" t="s">
+        <v>415</v>
+      </c>
+      <c r="H91" t="s">
+        <v>419</v>
+      </c>
+      <c r="I91" t="s">
+        <v>419</v>
+      </c>
+      <c r="J91" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92" t="s">
+        <v>314</v>
+      </c>
+      <c r="F92" t="s">
+        <v>407</v>
+      </c>
+      <c r="G92" t="s">
+        <v>415</v>
+      </c>
+      <c r="H92" t="s">
+        <v>419</v>
+      </c>
+      <c r="I92" t="s">
+        <v>419</v>
+      </c>
+      <c r="J92" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>208</v>
+      </c>
+      <c r="D93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E93" t="s">
+        <v>315</v>
+      </c>
+      <c r="F93" t="s">
+        <v>408</v>
+      </c>
+      <c r="G93" t="s">
+        <v>415</v>
+      </c>
+      <c r="H93" t="s">
+        <v>419</v>
+      </c>
+      <c r="I93" t="s">
+        <v>419</v>
+      </c>
+      <c r="J93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>208</v>
+      </c>
+      <c r="D94" t="s">
+        <v>222</v>
+      </c>
+      <c r="E94" t="s">
+        <v>316</v>
+      </c>
+      <c r="F94" t="s">
+        <v>409</v>
+      </c>
+      <c r="G94" t="s">
+        <v>415</v>
+      </c>
+      <c r="H94" t="s">
+        <v>419</v>
+      </c>
+      <c r="I94" t="s">
+        <v>419</v>
+      </c>
+      <c r="J94" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>210</v>
+      </c>
+      <c r="D95" t="s">
+        <v>222</v>
+      </c>
+      <c r="E95" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" t="s">
+        <v>417</v>
+      </c>
+      <c r="H95" t="s">
+        <v>419</v>
+      </c>
+      <c r="I95" t="s">
+        <v>419</v>
+      </c>
+      <c r="J95" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>104</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>208</v>
+      </c>
+      <c r="D96" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" t="s">
+        <v>318</v>
+      </c>
+      <c r="F96" t="s">
+        <v>410</v>
+      </c>
+      <c r="G96" t="s">
+        <v>415</v>
+      </c>
+      <c r="H96" t="s">
+        <v>419</v>
+      </c>
+      <c r="I96" t="s">
+        <v>419</v>
+      </c>
+      <c r="J96" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D97" t="s">
+        <v>222</v>
+      </c>
+      <c r="E97" t="s">
+        <v>319</v>
+      </c>
+      <c r="F97" t="s">
+        <v>411</v>
+      </c>
+      <c r="G97" t="s">
+        <v>415</v>
+      </c>
+      <c r="H97" t="s">
+        <v>419</v>
+      </c>
+      <c r="I97" t="s">
+        <v>419</v>
+      </c>
+      <c r="J97" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" t="s">
+        <v>106</v>
+      </c>
+      <c r="B98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" t="s">
+        <v>223</v>
+      </c>
+      <c r="E98" t="s">
+        <v>320</v>
+      </c>
+      <c r="F98" t="s">
+        <v>412</v>
+      </c>
+      <c r="G98" t="s">
+        <v>415</v>
+      </c>
+      <c r="H98" t="s">
+        <v>438</v>
+      </c>
+      <c r="I98" t="s">
+        <v>421</v>
+      </c>
+      <c r="J98">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99" t="s">
+        <v>321</v>
+      </c>
+      <c r="F99" t="s">
+        <v>413</v>
+      </c>
+      <c r="G99" t="s">
+        <v>416</v>
+      </c>
+      <c r="H99" t="s">
+        <v>421</v>
+      </c>
+      <c r="I99" t="s">
+        <v>421</v>
+      </c>
+      <c r="J99">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" t="s">
+        <v>322</v>
+      </c>
+      <c r="F100" t="s">
+        <v>414</v>
+      </c>
+      <c r="G100" t="s">
+        <v>416</v>
+      </c>
+      <c r="H100" t="s">
+        <v>419</v>
+      </c>
+      <c r="I100" t="s">
+        <v>419</v>
+      </c>
+      <c r="J100" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
